--- a/data/pca/factorExposure/factorExposure_2018-10-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.05473245595797507</v>
+        <v>-0.04149794157848435</v>
       </c>
       <c r="C2">
-        <v>0.06379691756136639</v>
+        <v>0.001873018642231384</v>
       </c>
       <c r="D2">
-        <v>0.04681261847492543</v>
+        <v>0.01435397589635265</v>
       </c>
       <c r="E2">
-        <v>0.06092276343282997</v>
+        <v>-0.01570482581518366</v>
       </c>
       <c r="F2">
-        <v>0.1481504941941576</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03803606728681089</v>
+      </c>
+      <c r="G2">
+        <v>0.09338094368197564</v>
+      </c>
+      <c r="H2">
+        <v>-0.02462330311316723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1604652419978418</v>
+        <v>-0.09720099921838689</v>
       </c>
       <c r="C3">
-        <v>0.02559094953635305</v>
+        <v>-0.04109335854871262</v>
       </c>
       <c r="D3">
-        <v>0.06087487717989096</v>
+        <v>0.04076489405946349</v>
       </c>
       <c r="E3">
-        <v>0.1051036359095454</v>
+        <v>-0.01205695742715027</v>
       </c>
       <c r="F3">
-        <v>0.3738692598680757</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.013317323209847</v>
+      </c>
+      <c r="G3">
+        <v>0.2985455347345168</v>
+      </c>
+      <c r="H3">
+        <v>-0.04986053885517008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.06048238961452786</v>
+        <v>-0.05139845912095794</v>
       </c>
       <c r="C4">
-        <v>0.03675088609517524</v>
+        <v>-0.008445978894531577</v>
       </c>
       <c r="D4">
-        <v>0.02017975193518001</v>
+        <v>0.03608848219566279</v>
       </c>
       <c r="E4">
-        <v>0.0828006063140849</v>
+        <v>0.01781779068407697</v>
       </c>
       <c r="F4">
-        <v>0.05907892261394283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06464372608485389</v>
+      </c>
+      <c r="G4">
+        <v>0.04275508680052411</v>
+      </c>
+      <c r="H4">
+        <v>-0.03276401797687712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.008975704781339962</v>
+        <v>-0.0316793834723875</v>
       </c>
       <c r="C6">
-        <v>0.001940425152278548</v>
+        <v>-0.004431833131431341</v>
       </c>
       <c r="D6">
-        <v>0.007559932370767719</v>
+        <v>0.02986906920136942</v>
       </c>
       <c r="E6">
-        <v>-0.001758369861876689</v>
+        <v>0.004462976405383899</v>
       </c>
       <c r="F6">
-        <v>0.006430589082324733</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03207187002560896</v>
+      </c>
+      <c r="G6">
+        <v>0.001641187714250049</v>
+      </c>
+      <c r="H6">
+        <v>-0.05060168278081874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03142848383920861</v>
+        <v>-0.02489662216651289</v>
       </c>
       <c r="C7">
-        <v>0.01885529214468815</v>
+        <v>-0.004333660784993231</v>
       </c>
       <c r="D7">
-        <v>0.03516362155755633</v>
+        <v>0.01918054206180187</v>
       </c>
       <c r="E7">
-        <v>0.03791113569186612</v>
+        <v>0.03523102620074804</v>
       </c>
       <c r="F7">
-        <v>0.06543525136142812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02692639780332909</v>
+      </c>
+      <c r="G7">
+        <v>0.03651884841022868</v>
+      </c>
+      <c r="H7">
+        <v>-0.02256753727635494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01568780872429668</v>
+        <v>-0.005622300461613263</v>
       </c>
       <c r="C8">
-        <v>0.01096443511336131</v>
+        <v>-0.003741659940074368</v>
       </c>
       <c r="D8">
-        <v>0.01228084361712367</v>
+        <v>0.02262947498837324</v>
       </c>
       <c r="E8">
-        <v>0.07762464381244842</v>
+        <v>0.01166243627094884</v>
       </c>
       <c r="F8">
-        <v>0.09249526026606632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.03056594029491992</v>
+      </c>
+      <c r="G8">
+        <v>0.05567679744857378</v>
+      </c>
+      <c r="H8">
+        <v>-0.009334689167968004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04906907678618919</v>
+        <v>-0.04082187691962488</v>
       </c>
       <c r="C9">
-        <v>0.03063767042943161</v>
+        <v>-0.01007976220984358</v>
       </c>
       <c r="D9">
-        <v>0.00315389060015387</v>
+        <v>0.0310195336891696</v>
       </c>
       <c r="E9">
-        <v>0.08672819143049598</v>
+        <v>0.0175498914734668</v>
       </c>
       <c r="F9">
-        <v>0.065459577287002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04397702437470598</v>
+      </c>
+      <c r="G9">
+        <v>0.06279861972910133</v>
+      </c>
+      <c r="H9">
+        <v>-0.03617583724117104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04229994549786439</v>
+        <v>-0.06516195032126572</v>
       </c>
       <c r="C10">
-        <v>0.05103863850154335</v>
+        <v>-0.03186523554728897</v>
       </c>
       <c r="D10">
-        <v>-0.05511171920776294</v>
+        <v>-0.1591354591606649</v>
       </c>
       <c r="E10">
-        <v>-0.1439324463774137</v>
+        <v>-0.01724602143657454</v>
       </c>
       <c r="F10">
-        <v>0.07908631426644952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.07980537262141593</v>
+      </c>
+      <c r="G10">
+        <v>0.04784599068810644</v>
+      </c>
+      <c r="H10">
+        <v>-0.01199337529946501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03633940404985431</v>
+        <v>-0.02489379308684495</v>
       </c>
       <c r="C11">
-        <v>0.01214214027379003</v>
+        <v>-0.01588638050290799</v>
       </c>
       <c r="D11">
-        <v>0.02131975491738897</v>
+        <v>0.03351944726733968</v>
       </c>
       <c r="E11">
-        <v>0.03680036302600213</v>
+        <v>-0.004309064810390312</v>
       </c>
       <c r="F11">
-        <v>0.03225905812285377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02610569555486553</v>
+      </c>
+      <c r="G11">
+        <v>0.03198124351458904</v>
+      </c>
+      <c r="H11">
+        <v>-0.03026566203723334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04315894143488577</v>
+        <v>-0.03362808559254564</v>
       </c>
       <c r="C12">
-        <v>0.01213842358375688</v>
+        <v>-0.01569153042682692</v>
       </c>
       <c r="D12">
-        <v>0.01245861791154206</v>
+        <v>0.03301900381682233</v>
       </c>
       <c r="E12">
-        <v>0.04824273692991193</v>
+        <v>0.006082998348020891</v>
       </c>
       <c r="F12">
-        <v>0.01715060825006089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02761707245965092</v>
+      </c>
+      <c r="G12">
+        <v>0.005513680782743332</v>
+      </c>
+      <c r="H12">
+        <v>-0.01543268859441682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.03169912617729617</v>
+        <v>-0.03228764627174482</v>
       </c>
       <c r="C13">
-        <v>0.02315575878285796</v>
+        <v>0.005108187661293747</v>
       </c>
       <c r="D13">
-        <v>0.04052046553898533</v>
+        <v>0.007978761946310742</v>
       </c>
       <c r="E13">
-        <v>0.02764855655874218</v>
+        <v>-0.01641882986310872</v>
       </c>
       <c r="F13">
-        <v>0.09415398649476478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02432681163184928</v>
+      </c>
+      <c r="G13">
+        <v>0.06791372530089869</v>
+      </c>
+      <c r="H13">
+        <v>-0.02899774618546644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01624732975994193</v>
+        <v>-0.01832015577090439</v>
       </c>
       <c r="C14">
-        <v>0.02352727114324004</v>
+        <v>-0.005345612313898064</v>
       </c>
       <c r="D14">
-        <v>0.01321365741723676</v>
+        <v>0.002992338706335292</v>
       </c>
       <c r="E14">
-        <v>0.04390486062508011</v>
+        <v>0.007213488584011235</v>
       </c>
       <c r="F14">
-        <v>0.06021963923325067</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03076077705315716</v>
+      </c>
+      <c r="G14">
+        <v>0.04240034730885437</v>
+      </c>
+      <c r="H14">
+        <v>0.01943659473134874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02816178990066376</v>
+        <v>-0.02479742898518524</v>
       </c>
       <c r="C16">
-        <v>0.01251952881179187</v>
+        <v>-0.01559975062778354</v>
       </c>
       <c r="D16">
-        <v>0.0188907629733525</v>
+        <v>0.03106817523152128</v>
       </c>
       <c r="E16">
-        <v>0.0347908359646909</v>
+        <v>0.0003817027766215268</v>
       </c>
       <c r="F16">
-        <v>0.03199100517795917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02595645777259749</v>
+      </c>
+      <c r="G16">
+        <v>0.02296255831148807</v>
+      </c>
+      <c r="H16">
+        <v>-0.0241278099542408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04142957788799535</v>
+        <v>-0.03414481999734029</v>
       </c>
       <c r="C19">
-        <v>0.01373166725008374</v>
+        <v>-0.007947905999948312</v>
       </c>
       <c r="D19">
-        <v>0.0326647674495519</v>
+        <v>0.0170216482179128</v>
       </c>
       <c r="E19">
-        <v>0.04402113839072447</v>
+        <v>-0.003995399693662525</v>
       </c>
       <c r="F19">
-        <v>0.09585195737336651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.03660391452066108</v>
+      </c>
+      <c r="G19">
+        <v>0.06880684373222504</v>
+      </c>
+      <c r="H19">
+        <v>-0.04424541416018263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003585324231619932</v>
+        <v>-0.01122591631476217</v>
       </c>
       <c r="C20">
-        <v>0.0185139892338624</v>
+        <v>0.003988239709857806</v>
       </c>
       <c r="D20">
-        <v>0.02000301592689455</v>
+        <v>0.0127035028220844</v>
       </c>
       <c r="E20">
-        <v>0.05518034425229382</v>
+        <v>0.002420917777292568</v>
       </c>
       <c r="F20">
-        <v>0.06521615167562525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02262543462444248</v>
+      </c>
+      <c r="G20">
+        <v>0.05326273380933907</v>
+      </c>
+      <c r="H20">
+        <v>0.00936413569593084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005529796726606379</v>
+        <v>-0.02385583753082195</v>
       </c>
       <c r="C21">
-        <v>0.001038587151653967</v>
+        <v>0.0008793987695834979</v>
       </c>
       <c r="D21">
-        <v>0.01967542637872356</v>
+        <v>0.00194796933954452</v>
       </c>
       <c r="E21">
-        <v>0.03629113230229523</v>
+        <v>0.01053573247021968</v>
       </c>
       <c r="F21">
-        <v>0.08900806527952679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01083098403439352</v>
+      </c>
+      <c r="G21">
+        <v>0.06000548853151486</v>
+      </c>
+      <c r="H21">
+        <v>-0.01604079721513285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03146135242444383</v>
+        <v>-0.02550825138362752</v>
       </c>
       <c r="C24">
-        <v>0.01074070945558701</v>
+        <v>-0.01089993120705919</v>
       </c>
       <c r="D24">
-        <v>0.01668096687675637</v>
+        <v>0.03113279018264264</v>
       </c>
       <c r="E24">
-        <v>0.03496164418862993</v>
+        <v>0.0005271658569418203</v>
       </c>
       <c r="F24">
-        <v>0.03608239988717852</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02261035798317473</v>
+      </c>
+      <c r="G24">
+        <v>0.02592635065970902</v>
+      </c>
+      <c r="H24">
+        <v>-0.03051812744828065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03308563153174596</v>
+        <v>-0.03520212963187241</v>
       </c>
       <c r="C25">
-        <v>0.01175904808867941</v>
+        <v>-0.01087818721582863</v>
       </c>
       <c r="D25">
-        <v>0.01364050276011405</v>
+        <v>0.02417129372506176</v>
       </c>
       <c r="E25">
-        <v>0.03755491036171417</v>
+        <v>0.001219634317671528</v>
       </c>
       <c r="F25">
-        <v>0.03696840824796174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02792145437188292</v>
+      </c>
+      <c r="G25">
+        <v>0.03158306085901202</v>
+      </c>
+      <c r="H25">
+        <v>-0.03355393161998296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02052451555064357</v>
+        <v>-0.02189326658154776</v>
       </c>
       <c r="C26">
-        <v>0.001226791598455721</v>
+        <v>0.01368947729615633</v>
       </c>
       <c r="D26">
-        <v>0.04259321476268014</v>
+        <v>0.01127708302212962</v>
       </c>
       <c r="E26">
-        <v>0.04082365484710172</v>
+        <v>-0.00594553971548395</v>
       </c>
       <c r="F26">
-        <v>0.05681672191268756</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008641687947993082</v>
+      </c>
+      <c r="G26">
+        <v>0.03997832635938212</v>
+      </c>
+      <c r="H26">
+        <v>-0.002567599926518303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07969989952126877</v>
+        <v>-0.03566351433274988</v>
       </c>
       <c r="C27">
-        <v>0.05487327845981847</v>
+        <v>-0.02253867098727116</v>
       </c>
       <c r="D27">
-        <v>0.007305392710085522</v>
+        <v>0.00648079277697792</v>
       </c>
       <c r="E27">
-        <v>0.05790082567997133</v>
+        <v>0.003102275738430331</v>
       </c>
       <c r="F27">
-        <v>0.06240896679298846</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.03105651728460071</v>
+      </c>
+      <c r="G27">
+        <v>0.03156098349115145</v>
+      </c>
+      <c r="H27">
+        <v>-0.001780822217077133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05883149617148548</v>
+        <v>-0.1013315144349126</v>
       </c>
       <c r="C28">
-        <v>0.06335486543058452</v>
+        <v>-0.03498008961506287</v>
       </c>
       <c r="D28">
-        <v>-0.09311998210054438</v>
+        <v>-0.2345026678851021</v>
       </c>
       <c r="E28">
-        <v>-0.2118775662182879</v>
+        <v>-0.01821950061539982</v>
       </c>
       <c r="F28">
-        <v>0.08591292287602344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1148858766222658</v>
+      </c>
+      <c r="G28">
+        <v>0.03177559111381353</v>
+      </c>
+      <c r="H28">
+        <v>0.003743748543756169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02309304947534996</v>
+        <v>-0.02225080776741064</v>
       </c>
       <c r="C29">
-        <v>0.02151823278235105</v>
+        <v>-0.007639948833653129</v>
       </c>
       <c r="D29">
-        <v>0.01119170806002228</v>
+        <v>0.005908627301342159</v>
       </c>
       <c r="E29">
-        <v>0.05639718713727095</v>
+        <v>0.007815669285197484</v>
       </c>
       <c r="F29">
-        <v>0.05107293347718744</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03088861773575021</v>
+      </c>
+      <c r="G29">
+        <v>0.03631382162725855</v>
+      </c>
+      <c r="H29">
+        <v>0.01629465213930596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08987428349776559</v>
+        <v>-0.06624052889259657</v>
       </c>
       <c r="C30">
-        <v>0.05674587654553131</v>
+        <v>-0.01535037280065659</v>
       </c>
       <c r="D30">
-        <v>0.05167067147400629</v>
+        <v>0.05017689612864872</v>
       </c>
       <c r="E30">
-        <v>0.07662812630586897</v>
+        <v>-0.0400539014460001</v>
       </c>
       <c r="F30">
-        <v>0.07108705488265729</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.07307901189958649</v>
+      </c>
+      <c r="G30">
+        <v>0.06908124830287034</v>
+      </c>
+      <c r="H30">
+        <v>-0.05044570092136082</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0570065933598013</v>
+        <v>-0.05191448338840905</v>
       </c>
       <c r="C31">
-        <v>0.01844475934412577</v>
+        <v>-0.02596867441960812</v>
       </c>
       <c r="D31">
-        <v>0.04820802662629859</v>
+        <v>0.01582481382167969</v>
       </c>
       <c r="E31">
-        <v>0.02209251040497185</v>
+        <v>-0.01066430546240105</v>
       </c>
       <c r="F31">
-        <v>0.03292666562076312</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02101397883868328</v>
+      </c>
+      <c r="G31">
+        <v>0.01686373814190291</v>
+      </c>
+      <c r="H31">
+        <v>0.01448995238708015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02440960707380797</v>
+        <v>-0.00959174318793907</v>
       </c>
       <c r="C32">
-        <v>0.02338696014206051</v>
+        <v>-0.01771988100384744</v>
       </c>
       <c r="D32">
-        <v>0.01768990558997583</v>
+        <v>0.008511315178740438</v>
       </c>
       <c r="E32">
-        <v>0.09022620604628362</v>
+        <v>0.01768502561448912</v>
       </c>
       <c r="F32">
-        <v>0.07456755885773017</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05064629864884166</v>
+      </c>
+      <c r="G32">
+        <v>0.04842267863304922</v>
+      </c>
+      <c r="H32">
+        <v>-0.04334937963622342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05371968701507383</v>
+        <v>-0.04144796541315868</v>
       </c>
       <c r="C33">
-        <v>0.00698980485920929</v>
+        <v>-0.01076227021609331</v>
       </c>
       <c r="D33">
-        <v>0.05485697251211118</v>
+        <v>0.03252074006518936</v>
       </c>
       <c r="E33">
-        <v>0.06060414522001507</v>
+        <v>-0.02337132486017997</v>
       </c>
       <c r="F33">
-        <v>0.08635008302341918</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01868451891670053</v>
+      </c>
+      <c r="G33">
+        <v>0.06093246095411434</v>
+      </c>
+      <c r="H33">
+        <v>-0.02359618713055373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0332896786227488</v>
+        <v>-0.02664783908521347</v>
       </c>
       <c r="C34">
-        <v>0.01849036975427415</v>
+        <v>-0.02458241545332057</v>
       </c>
       <c r="D34">
-        <v>0.01893693774674842</v>
+        <v>0.02777767746609736</v>
       </c>
       <c r="E34">
-        <v>0.04148118898526033</v>
+        <v>0.005094747985903651</v>
       </c>
       <c r="F34">
-        <v>0.03819353325258035</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02902925941666249</v>
+      </c>
+      <c r="G34">
+        <v>0.0258128615156481</v>
+      </c>
+      <c r="H34">
+        <v>-0.02995888508757367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01194761678794894</v>
+        <v>-0.01790423671149584</v>
       </c>
       <c r="C36">
-        <v>0.008156802736367128</v>
+        <v>0.001654493294825023</v>
       </c>
       <c r="D36">
-        <v>0.004818348373309379</v>
+        <v>-0.001406753854010674</v>
       </c>
       <c r="E36">
-        <v>0.0273627250546941</v>
+        <v>0.003287455646549915</v>
       </c>
       <c r="F36">
-        <v>0.03039740830673932</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.006900047461396892</v>
+      </c>
+      <c r="G36">
+        <v>0.02362836720901372</v>
+      </c>
+      <c r="H36">
+        <v>0.001898741771785224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.007242217449739199</v>
+        <v>-0.01422072703471856</v>
       </c>
       <c r="C38">
-        <v>0.003895574164787122</v>
+        <v>-0.01852217119857887</v>
       </c>
       <c r="D38">
-        <v>-0.01296438532172715</v>
+        <v>-0.0005784420458641798</v>
       </c>
       <c r="E38">
-        <v>0.004794010016288879</v>
+        <v>0.006544610137057636</v>
       </c>
       <c r="F38">
-        <v>0.02078724528900987</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01379997545445351</v>
+      </c>
+      <c r="G38">
+        <v>0.03088620794023174</v>
+      </c>
+      <c r="H38">
+        <v>-0.02355983987930263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04053294834417671</v>
+        <v>-0.03023737853751839</v>
       </c>
       <c r="C39">
-        <v>0.02369697035600384</v>
+        <v>-0.01235828371058383</v>
       </c>
       <c r="D39">
-        <v>0.03579567115215376</v>
+        <v>0.064069322024091</v>
       </c>
       <c r="E39">
-        <v>0.03846738795731933</v>
+        <v>-0.003576873200266693</v>
       </c>
       <c r="F39">
-        <v>0.03787644667138339</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04771541113970192</v>
+      </c>
+      <c r="G39">
+        <v>0.04394588646180102</v>
+      </c>
+      <c r="H39">
+        <v>-0.05230719472733505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03857418119585865</v>
+        <v>-0.03452283428521757</v>
       </c>
       <c r="C40">
-        <v>0.04473099157314572</v>
+        <v>-0.01076891417766907</v>
       </c>
       <c r="D40">
-        <v>0.06274406833557421</v>
+        <v>0.02560051112366244</v>
       </c>
       <c r="E40">
-        <v>0.04831600605632519</v>
+        <v>-0.02069687804660078</v>
       </c>
       <c r="F40">
-        <v>0.08321143290060047</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.0440711500079192</v>
+      </c>
+      <c r="G40">
+        <v>0.04496750617157658</v>
+      </c>
+      <c r="H40">
+        <v>-0.05367987865330299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0002545915709779431</v>
+        <v>-0.007589438526130554</v>
       </c>
       <c r="C41">
-        <v>-0.00500178595762929</v>
+        <v>0.0001047131701815656</v>
       </c>
       <c r="D41">
-        <v>0.01379004415272786</v>
+        <v>-0.004763640937917612</v>
       </c>
       <c r="E41">
-        <v>0.02494305981170221</v>
+        <v>-0.001274026858803183</v>
       </c>
       <c r="F41">
-        <v>0.02584245232228295</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0008764861173794992</v>
+      </c>
+      <c r="G41">
+        <v>0.01329823424282827</v>
+      </c>
+      <c r="H41">
+        <v>0.01575062677981855</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3761877154791855</v>
+        <v>-0.2478778124042007</v>
       </c>
       <c r="C42">
-        <v>-0.8812860284278673</v>
+        <v>0.04802310489507939</v>
       </c>
       <c r="D42">
-        <v>0.1519529799884436</v>
+        <v>0.5332776459148136</v>
       </c>
       <c r="E42">
-        <v>-0.1654022395803856</v>
+        <v>-0.1124039544457753</v>
       </c>
       <c r="F42">
-        <v>-0.00953648046458795</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7839746812455887</v>
+      </c>
+      <c r="G42">
+        <v>-0.07500515896291614</v>
+      </c>
+      <c r="H42">
+        <v>-0.0231934439532095</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007174357696172124</v>
+        <v>-0.005622381357727185</v>
       </c>
       <c r="C43">
-        <v>-0.0007952483087276604</v>
+        <v>0.00236725580511929</v>
       </c>
       <c r="D43">
-        <v>0.02110303193698072</v>
+        <v>-0.005918272255177085</v>
       </c>
       <c r="E43">
-        <v>0.02906896899384231</v>
+        <v>-0.005113533041906245</v>
       </c>
       <c r="F43">
-        <v>0.03836081417168445</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003323686497715223</v>
+      </c>
+      <c r="G43">
+        <v>0.02083979778755388</v>
+      </c>
+      <c r="H43">
+        <v>0.01250133640407522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02486345497303691</v>
+        <v>-0.01503883464358234</v>
       </c>
       <c r="C44">
-        <v>0.009291317146914061</v>
+        <v>-0.003714610544509487</v>
       </c>
       <c r="D44">
-        <v>0.0365767514852772</v>
+        <v>0.02651054570511059</v>
       </c>
       <c r="E44">
-        <v>0.06214888389224424</v>
+        <v>0.001636860551256182</v>
       </c>
       <c r="F44">
-        <v>0.1873020567894533</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.00977549506921112</v>
+      </c>
+      <c r="G44">
+        <v>0.09392659611961766</v>
+      </c>
+      <c r="H44">
+        <v>-0.02161969445662747</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01912482504314908</v>
+        <v>-0.02239394897634474</v>
       </c>
       <c r="C46">
-        <v>0.01779159499214226</v>
+        <v>-0.00352412349144174</v>
       </c>
       <c r="D46">
-        <v>0.02976087788239952</v>
+        <v>0.01140277891501143</v>
       </c>
       <c r="E46">
-        <v>0.05197931516525155</v>
+        <v>-0.005068193265047878</v>
       </c>
       <c r="F46">
-        <v>0.04731678356936166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03447355822787845</v>
+      </c>
+      <c r="G46">
+        <v>0.04885629087565815</v>
+      </c>
+      <c r="H46">
+        <v>0.0125838826099748</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09666038999241036</v>
+        <v>-0.07376357451123354</v>
       </c>
       <c r="C47">
-        <v>0.03648525388973481</v>
+        <v>-0.04790019946240288</v>
       </c>
       <c r="D47">
-        <v>0.03173336610569914</v>
+        <v>0.01983501959590547</v>
       </c>
       <c r="E47">
-        <v>0.04163924838124403</v>
+        <v>-0.007626646468591524</v>
       </c>
       <c r="F47">
-        <v>0.001995366252407198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.03294705655244043</v>
+      </c>
+      <c r="G47">
+        <v>-0.01268972716808542</v>
+      </c>
+      <c r="H47">
+        <v>0.0295215021221884</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01238381493458368</v>
+        <v>-0.0177286195591229</v>
       </c>
       <c r="C48">
-        <v>0.007737232452576479</v>
+        <v>-0.009360331658034283</v>
       </c>
       <c r="D48">
-        <v>0.02116793821164515</v>
+        <v>0.006784325160307109</v>
       </c>
       <c r="E48">
-        <v>0.04224527731221749</v>
+        <v>-0.0009700866587875031</v>
       </c>
       <c r="F48">
-        <v>0.04790193483523895</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01358087937449223</v>
+      </c>
+      <c r="G48">
+        <v>0.03042927995693688</v>
+      </c>
+      <c r="H48">
+        <v>-0.004929748833571625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09017976935031731</v>
+        <v>-0.06873569897644878</v>
       </c>
       <c r="C50">
-        <v>0.02085422902916186</v>
+        <v>-0.04171368309260844</v>
       </c>
       <c r="D50">
-        <v>0.04450673647678031</v>
+        <v>0.03520059945080823</v>
       </c>
       <c r="E50">
-        <v>0.0449440868536494</v>
+        <v>0.006133121632539634</v>
       </c>
       <c r="F50">
-        <v>0.01584708739632147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02977272273576625</v>
+      </c>
+      <c r="G50">
+        <v>0.01693707450573559</v>
+      </c>
+      <c r="H50">
+        <v>0.0259765710601674</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.04737702534164728</v>
+        <v>-0.02847506287580713</v>
       </c>
       <c r="C51">
-        <v>0.0006367341564984184</v>
+        <v>-0.006648973497671313</v>
       </c>
       <c r="D51">
-        <v>0.04899978631309172</v>
+        <v>-0.00148109660198266</v>
       </c>
       <c r="E51">
-        <v>0.01085981056464688</v>
+        <v>-0.01438158757547468</v>
       </c>
       <c r="F51">
-        <v>0.1661265029580228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01355415738121494</v>
+      </c>
+      <c r="G51">
+        <v>0.09364116023882038</v>
+      </c>
+      <c r="H51">
+        <v>-0.03181779674878191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1109763253096856</v>
+        <v>-0.09705518315275853</v>
       </c>
       <c r="C53">
-        <v>0.04173995737882537</v>
+        <v>-0.062076382644874</v>
       </c>
       <c r="D53">
-        <v>0.05656341483349929</v>
+        <v>0.04661622810309258</v>
       </c>
       <c r="E53">
-        <v>0.05470377921850152</v>
+        <v>-0.006335914364062966</v>
       </c>
       <c r="F53">
-        <v>-0.06597993909055035</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05865401789017647</v>
+      </c>
+      <c r="G53">
+        <v>-0.05980847703923223</v>
+      </c>
+      <c r="H53">
+        <v>0.0349775167468398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02497585047511145</v>
+        <v>-0.02283581127581362</v>
       </c>
       <c r="C54">
-        <v>0.03828551898637601</v>
+        <v>-0.01817908433184742</v>
       </c>
       <c r="D54">
-        <v>0.01189378420786804</v>
+        <v>-0.02187562430475886</v>
       </c>
       <c r="E54">
-        <v>0.03400687059368187</v>
+        <v>0.002165266516550726</v>
       </c>
       <c r="F54">
-        <v>0.07293741543034112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01736874914490056</v>
+      </c>
+      <c r="G54">
+        <v>0.04814647017497833</v>
+      </c>
+      <c r="H54">
+        <v>0.0219194548021709</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1053377187595431</v>
+        <v>-0.08337350025359486</v>
       </c>
       <c r="C55">
-        <v>0.02788154478404998</v>
+        <v>-0.05363604432184328</v>
       </c>
       <c r="D55">
-        <v>0.00621901278743413</v>
+        <v>0.04232268635840778</v>
       </c>
       <c r="E55">
-        <v>0.05184143208080532</v>
+        <v>0.006093979536259209</v>
       </c>
       <c r="F55">
-        <v>-0.0574466966496878</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04421092646828276</v>
+      </c>
+      <c r="G55">
+        <v>-0.04030408401189135</v>
+      </c>
+      <c r="H55">
+        <v>0.04819773399177445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1461864593074396</v>
+        <v>-0.1253417223237201</v>
       </c>
       <c r="C56">
-        <v>0.07291253543437461</v>
+        <v>-0.08734758709863903</v>
       </c>
       <c r="D56">
-        <v>0.03216347608250264</v>
+        <v>0.05536382571046556</v>
       </c>
       <c r="E56">
-        <v>0.06300797922730743</v>
+        <v>-0.001005668130237849</v>
       </c>
       <c r="F56">
-        <v>-0.1634404884666105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.08253802659828004</v>
+      </c>
+      <c r="G56">
+        <v>-0.1053605174806993</v>
+      </c>
+      <c r="H56">
+        <v>0.02976516632593938</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04922433567077165</v>
+        <v>-0.04579065318862136</v>
       </c>
       <c r="C57">
-        <v>0.02161185123082518</v>
+        <v>-0.001413023480285493</v>
       </c>
       <c r="D57">
-        <v>0.04054271079717109</v>
+        <v>0.02680327476883952</v>
       </c>
       <c r="E57">
-        <v>0.03008376909970632</v>
+        <v>-0.01392758385342351</v>
       </c>
       <c r="F57">
-        <v>0.08055458494772158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03086837198353071</v>
+      </c>
+      <c r="G57">
+        <v>0.06938697567666111</v>
+      </c>
+      <c r="H57">
+        <v>-0.01640784456192541</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2206029726634151</v>
+        <v>-0.1625713212835724</v>
       </c>
       <c r="C58">
-        <v>0.06902480376585146</v>
+        <v>-0.08593543333216622</v>
       </c>
       <c r="D58">
-        <v>0.1270826649468991</v>
+        <v>0.1147508145005591</v>
       </c>
       <c r="E58">
-        <v>0.1229443344063179</v>
+        <v>-0.1266883112923837</v>
       </c>
       <c r="F58">
-        <v>0.26631220604734</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.05550561550743272</v>
+      </c>
+      <c r="G58">
+        <v>0.6492677446434864</v>
+      </c>
+      <c r="H58">
+        <v>0.5616178102746378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.06390929271367179</v>
+        <v>-0.1050541992540271</v>
       </c>
       <c r="C59">
-        <v>0.08755312412679764</v>
+        <v>-0.04499930653878935</v>
       </c>
       <c r="D59">
-        <v>-0.07019941725866943</v>
+        <v>-0.2236689048341744</v>
       </c>
       <c r="E59">
-        <v>-0.1522002212831385</v>
+        <v>-0.03283349204817341</v>
       </c>
       <c r="F59">
-        <v>0.05596206737622098</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.08478533785417408</v>
+      </c>
+      <c r="G59">
+        <v>0.0318052358009407</v>
+      </c>
+      <c r="H59">
+        <v>-0.0244971045742332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1667813837354738</v>
+        <v>-0.1655322487693278</v>
       </c>
       <c r="C60">
-        <v>0.07948686833473689</v>
+        <v>-0.07439737712478264</v>
       </c>
       <c r="D60">
-        <v>0.04366751857106464</v>
+        <v>-0.01128928098139597</v>
       </c>
       <c r="E60">
-        <v>-0.04124261395259387</v>
+        <v>-0.05643710632220363</v>
       </c>
       <c r="F60">
-        <v>0.0854326151188302</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.06031367187667157</v>
+      </c>
+      <c r="G60">
+        <v>0.1138421490354593</v>
+      </c>
+      <c r="H60">
+        <v>-0.350976726336485</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02274640760481993</v>
+        <v>-0.02515438944742001</v>
       </c>
       <c r="C61">
-        <v>0.01200128557116743</v>
+        <v>-0.01424222511906066</v>
       </c>
       <c r="D61">
-        <v>0.01196205697392634</v>
+        <v>0.03548144632345301</v>
       </c>
       <c r="E61">
-        <v>0.03103689872496575</v>
+        <v>0.001922878704177708</v>
       </c>
       <c r="F61">
-        <v>0.03491943658519366</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03405418927976163</v>
+      </c>
+      <c r="G61">
+        <v>0.02893662459002507</v>
+      </c>
+      <c r="H61">
+        <v>-0.03951068163044096</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.02214171521014111</v>
+        <v>-0.01714660767847536</v>
       </c>
       <c r="C63">
-        <v>0.01944367497926064</v>
+        <v>-0.003716132629427233</v>
       </c>
       <c r="D63">
-        <v>0.02683855177610792</v>
+        <v>0.01147045708522594</v>
       </c>
       <c r="E63">
-        <v>0.04802220343013851</v>
+        <v>0.0002651059123169108</v>
       </c>
       <c r="F63">
-        <v>0.02463226591765046</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02612996289828517</v>
+      </c>
+      <c r="G63">
+        <v>0.02287164749300617</v>
+      </c>
+      <c r="H63">
+        <v>0.007109993992145574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05259938668780516</v>
+        <v>-0.04826777257491315</v>
       </c>
       <c r="C64">
-        <v>0.01864393166885559</v>
+        <v>-0.02456676084443349</v>
       </c>
       <c r="D64">
-        <v>0.01588396257283114</v>
+        <v>0.0417245675613273</v>
       </c>
       <c r="E64">
-        <v>0.08737135509901932</v>
+        <v>0.008805839853918192</v>
       </c>
       <c r="F64">
-        <v>0.04334338872960218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03430181398199963</v>
+      </c>
+      <c r="G64">
+        <v>0.01890422222375871</v>
+      </c>
+      <c r="H64">
+        <v>-0.03314659945679154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.008766611757477579</v>
+        <v>-0.03682709113410892</v>
       </c>
       <c r="C65">
-        <v>0.0003226912593618186</v>
+        <v>-0.005101109676072486</v>
       </c>
       <c r="D65">
-        <v>0.0060511032019465</v>
+        <v>0.0330726436288214</v>
       </c>
       <c r="E65">
-        <v>-0.004608490313271223</v>
+        <v>0.004318899746883332</v>
       </c>
       <c r="F65">
-        <v>0.003583300157740764</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03189957592629459</v>
+      </c>
+      <c r="G65">
+        <v>-0.006104076757032333</v>
+      </c>
+      <c r="H65">
+        <v>-0.05887549972469651</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04557265124820718</v>
+        <v>-0.03852980817430554</v>
       </c>
       <c r="C66">
-        <v>0.03169448092732528</v>
+        <v>-0.02067673069406235</v>
       </c>
       <c r="D66">
-        <v>0.03782068663810086</v>
+        <v>0.07328086500737833</v>
       </c>
       <c r="E66">
-        <v>0.05845400417002553</v>
+        <v>-0.01073375579810372</v>
       </c>
       <c r="F66">
-        <v>0.0427184561024156</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07019874993295246</v>
+      </c>
+      <c r="G66">
+        <v>0.03946087055326172</v>
+      </c>
+      <c r="H66">
+        <v>-0.0669152551990872</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02801689820088974</v>
+        <v>-0.03346219261215736</v>
       </c>
       <c r="C67">
-        <v>0.01233943724340429</v>
+        <v>-0.02545039965242857</v>
       </c>
       <c r="D67">
-        <v>-0.01649220357409579</v>
+        <v>-0.009928565644971025</v>
       </c>
       <c r="E67">
-        <v>-0.01501618081074509</v>
+        <v>0.001538669631096648</v>
       </c>
       <c r="F67">
-        <v>0.03109193365095634</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01446806931763293</v>
+      </c>
+      <c r="G67">
+        <v>0.02188688898937479</v>
+      </c>
+      <c r="H67">
+        <v>-0.0367662046633967</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06699744600957656</v>
+        <v>-0.1055424456673675</v>
       </c>
       <c r="C68">
-        <v>0.07195318899633095</v>
+        <v>-0.02120546671987248</v>
       </c>
       <c r="D68">
-        <v>-0.1058152132779289</v>
+        <v>-0.2205650341099233</v>
       </c>
       <c r="E68">
-        <v>-0.215211544138457</v>
+        <v>-0.02737888683385951</v>
       </c>
       <c r="F68">
-        <v>0.03187857843044217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.1102160746283917</v>
+      </c>
+      <c r="G68">
+        <v>0.02554816628088949</v>
+      </c>
+      <c r="H68">
+        <v>0.04981125188310767</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07157459107997345</v>
+        <v>-0.05780300286111369</v>
       </c>
       <c r="C69">
-        <v>0.03692187888927814</v>
+        <v>-0.04243370714727887</v>
       </c>
       <c r="D69">
-        <v>0.02347748300600649</v>
+        <v>0.01426692491644675</v>
       </c>
       <c r="E69">
-        <v>0.005215954000451765</v>
+        <v>-0.007847066021860923</v>
       </c>
       <c r="F69">
-        <v>0.01649838553679336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02839421727436744</v>
+      </c>
+      <c r="G69">
+        <v>-0.002304277129951092</v>
+      </c>
+      <c r="H69">
+        <v>0.009787073952959111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0822018453918157</v>
+        <v>-0.1030672816044444</v>
       </c>
       <c r="C71">
-        <v>0.07137867591672105</v>
+        <v>-0.03104988064990277</v>
       </c>
       <c r="D71">
-        <v>-0.08295099995364384</v>
+        <v>-0.2040503010306165</v>
       </c>
       <c r="E71">
-        <v>-0.2467097505829682</v>
+        <v>-0.03147654254342002</v>
       </c>
       <c r="F71">
-        <v>0.06331764685104696</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.1169150490089122</v>
+      </c>
+      <c r="G71">
+        <v>0.02984244751947852</v>
+      </c>
+      <c r="H71">
+        <v>0.0196294702988731</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1078493978353975</v>
+        <v>-0.08968659699837571</v>
       </c>
       <c r="C72">
-        <v>0.1166083002433682</v>
+        <v>-0.06740773715036676</v>
       </c>
       <c r="D72">
-        <v>0.02475644078211188</v>
+        <v>0.04791442935856852</v>
       </c>
       <c r="E72">
-        <v>0.05687783698311927</v>
+        <v>-0.01289574181650817</v>
       </c>
       <c r="F72">
-        <v>0.04439563615585776</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1184236972188768</v>
+      </c>
+      <c r="G72">
+        <v>0.07167851405590835</v>
+      </c>
+      <c r="H72">
+        <v>-0.1436246806116503</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2400989331278558</v>
+        <v>-0.2317605790330174</v>
       </c>
       <c r="C73">
-        <v>0.1094379877803487</v>
+        <v>-0.09878486052169481</v>
       </c>
       <c r="D73">
-        <v>0.02235856418275289</v>
+        <v>0.005648778261971284</v>
       </c>
       <c r="E73">
-        <v>-0.09950863890698013</v>
+        <v>-0.08993016051007106</v>
       </c>
       <c r="F73">
-        <v>0.1695855500525995</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.06375312813814728</v>
+      </c>
+      <c r="G73">
+        <v>0.1623407593699961</v>
+      </c>
+      <c r="H73">
+        <v>-0.5067333104767858</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1252545806551206</v>
+        <v>-0.1114156607207704</v>
       </c>
       <c r="C74">
-        <v>0.0387602716329949</v>
+        <v>-0.07682214488279292</v>
       </c>
       <c r="D74">
-        <v>0.03009049095898901</v>
+        <v>0.05223526413658369</v>
       </c>
       <c r="E74">
-        <v>0.02779207850747353</v>
+        <v>-0.008383691011465464</v>
       </c>
       <c r="F74">
-        <v>-0.1163897023772943</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06492569740910731</v>
+      </c>
+      <c r="G74">
+        <v>-0.09082969771853258</v>
+      </c>
+      <c r="H74">
+        <v>0.003193258872067546</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2290805415344665</v>
+        <v>-0.221114744990521</v>
       </c>
       <c r="C75">
-        <v>0.1102635573136143</v>
+        <v>-0.1538018129483123</v>
       </c>
       <c r="D75">
-        <v>0.0714011422220414</v>
+        <v>0.05980858581499148</v>
       </c>
       <c r="E75">
-        <v>0.04457766564510802</v>
+        <v>-0.03404410978971217</v>
       </c>
       <c r="F75">
-        <v>-0.1742915583332193</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1237172426355329</v>
+      </c>
+      <c r="G75">
+        <v>-0.1638037840868972</v>
+      </c>
+      <c r="H75">
+        <v>0.09133932994840638</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2630044411197351</v>
+        <v>-0.2113420060758215</v>
       </c>
       <c r="C76">
-        <v>0.1290663890607352</v>
+        <v>-0.1515500883259756</v>
       </c>
       <c r="D76">
-        <v>0.01127242628204405</v>
+        <v>0.05977751206660651</v>
       </c>
       <c r="E76">
-        <v>0.05582562842637877</v>
+        <v>0.009167083047188034</v>
       </c>
       <c r="F76">
-        <v>-0.2087214255698832</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1333755887454044</v>
+      </c>
+      <c r="G76">
+        <v>-0.1846730694576454</v>
+      </c>
+      <c r="H76">
+        <v>0.1015402734526481</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1418364287323182</v>
+        <v>-0.08237998957203518</v>
       </c>
       <c r="C77">
-        <v>-0.01162537856087921</v>
+        <v>-0.03016375153849971</v>
       </c>
       <c r="D77">
-        <v>0.06646934214929712</v>
+        <v>0.07206556543022362</v>
       </c>
       <c r="E77">
-        <v>0.05660593279042102</v>
+        <v>-0.01461241150394865</v>
       </c>
       <c r="F77">
-        <v>0.2109889137693154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.003157215108823472</v>
+      </c>
+      <c r="G77">
+        <v>0.1300720757531923</v>
+      </c>
+      <c r="H77">
+        <v>0.05315254904691277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05684714734494484</v>
+        <v>-0.04068206711928548</v>
       </c>
       <c r="C78">
-        <v>0.01229220570709183</v>
+        <v>-0.02148004166685194</v>
       </c>
       <c r="D78">
-        <v>0.04123188794289124</v>
+        <v>0.05272984030358483</v>
       </c>
       <c r="E78">
-        <v>0.08796849981370214</v>
+        <v>0.003006200758499366</v>
       </c>
       <c r="F78">
-        <v>0.02972702976088019</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04555707327244835</v>
+      </c>
+      <c r="G78">
+        <v>0.04731012898965899</v>
+      </c>
+      <c r="H78">
+        <v>-0.03369273799436778</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1918598466202871</v>
+        <v>-0.1718073524094904</v>
       </c>
       <c r="C80">
-        <v>-0.1533891920238734</v>
+        <v>-0.08657498099690356</v>
       </c>
       <c r="D80">
-        <v>-0.865082828223567</v>
+        <v>0.006146206797819537</v>
       </c>
       <c r="E80">
-        <v>0.4060695932279494</v>
+        <v>0.96129947469574</v>
       </c>
       <c r="F80">
-        <v>0.04309485616481296</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.1023304865949768</v>
+      </c>
+      <c r="G80">
+        <v>0.1043850724252875</v>
+      </c>
+      <c r="H80">
+        <v>-0.007133481995315424</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1610214898069497</v>
+        <v>-0.1499195567487151</v>
       </c>
       <c r="C81">
-        <v>0.09717691661997457</v>
+        <v>-0.1046636861327154</v>
       </c>
       <c r="D81">
-        <v>0.02886074071478778</v>
+        <v>0.03903742016082676</v>
       </c>
       <c r="E81">
-        <v>0.03955174121969452</v>
+        <v>-0.008136070101391817</v>
       </c>
       <c r="F81">
-        <v>-0.196038890050784</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09341387887645029</v>
+      </c>
+      <c r="G81">
+        <v>-0.1227763126109311</v>
+      </c>
+      <c r="H81">
+        <v>0.08065351635425803</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05797141385195888</v>
+        <v>-0.04180140572644545</v>
       </c>
       <c r="C83">
-        <v>-0.008207792401393332</v>
+        <v>-0.01811023342747669</v>
       </c>
       <c r="D83">
-        <v>0.04709503883083652</v>
+        <v>0.02701470745559041</v>
       </c>
       <c r="E83">
-        <v>0.039637353769363</v>
+        <v>-0.01413914582638194</v>
       </c>
       <c r="F83">
-        <v>0.08117212094848543</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01484776011307971</v>
+      </c>
+      <c r="G83">
+        <v>0.05924094700285001</v>
+      </c>
+      <c r="H83">
+        <v>-0.02346870349646191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2339680602361023</v>
+        <v>-0.2116898041219507</v>
       </c>
       <c r="C85">
-        <v>0.09051531820795911</v>
+        <v>-0.1341127189704544</v>
       </c>
       <c r="D85">
-        <v>0.03738251556165683</v>
+        <v>0.07860136789311818</v>
       </c>
       <c r="E85">
-        <v>0.03615040063812008</v>
+        <v>-0.02101563543457703</v>
       </c>
       <c r="F85">
-        <v>-0.1944152821879332</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1157300842726689</v>
+      </c>
+      <c r="G85">
+        <v>-0.1728688209258898</v>
+      </c>
+      <c r="H85">
+        <v>0.06496972172875773</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.008461257863407441</v>
+        <v>-0.01081803606758024</v>
       </c>
       <c r="C86">
-        <v>0.0002509870154938945</v>
+        <v>-0.0002988497100140941</v>
       </c>
       <c r="D86">
-        <v>0.02754472948217942</v>
+        <v>0.02264450310526032</v>
       </c>
       <c r="E86">
-        <v>0.08589067371991943</v>
+        <v>-0.006573810426196741</v>
       </c>
       <c r="F86">
-        <v>0.08615855374898018</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01928937750009639</v>
+      </c>
+      <c r="G86">
+        <v>0.08520399692142785</v>
+      </c>
+      <c r="H86">
+        <v>-0.04560340075604539</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02129377582295798</v>
+        <v>-0.02691267899681532</v>
       </c>
       <c r="C87">
-        <v>0.02143819878894059</v>
+        <v>-0.008212738248968603</v>
       </c>
       <c r="D87">
-        <v>-0.005833275641616344</v>
+        <v>0.01303408275645038</v>
       </c>
       <c r="E87">
-        <v>-0.003141741232041854</v>
+        <v>-0.0005806697639143712</v>
       </c>
       <c r="F87">
-        <v>0.07914140609655035</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.0149173908328318</v>
+      </c>
+      <c r="G87">
+        <v>0.08560992039882802</v>
+      </c>
+      <c r="H87">
+        <v>-0.02817006551103408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0125237726701236</v>
+        <v>-0.03919729257707168</v>
       </c>
       <c r="C88">
-        <v>0.01882103690286101</v>
+        <v>0.0024192699180337</v>
       </c>
       <c r="D88">
-        <v>-0.01547666120913176</v>
+        <v>-0.01093844909073941</v>
       </c>
       <c r="E88">
-        <v>0.009140957498963943</v>
+        <v>0.005400448808477212</v>
       </c>
       <c r="F88">
-        <v>0.04206373508836805</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01553527606131658</v>
+      </c>
+      <c r="G88">
+        <v>0.002964027541325733</v>
+      </c>
+      <c r="H88">
+        <v>-0.01634842040336803</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09674046604557855</v>
+        <v>-0.1641152540129941</v>
       </c>
       <c r="C89">
-        <v>0.0901079908047452</v>
+        <v>-0.04512463395725861</v>
       </c>
       <c r="D89">
-        <v>-0.1034580245380744</v>
+        <v>-0.3462517206776277</v>
       </c>
       <c r="E89">
-        <v>-0.3106119568139274</v>
+        <v>-0.06808229282228349</v>
       </c>
       <c r="F89">
-        <v>0.1223806732012802</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1647864040914486</v>
+      </c>
+      <c r="G89">
+        <v>0.02457206429113767</v>
+      </c>
+      <c r="H89">
+        <v>0.01628362189540957</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09205375630689097</v>
+        <v>-0.1272392871314336</v>
       </c>
       <c r="C90">
-        <v>0.08449496593099104</v>
+        <v>-0.03412823331439757</v>
       </c>
       <c r="D90">
-        <v>-0.1499217747271326</v>
+        <v>-0.2990776285946906</v>
       </c>
       <c r="E90">
-        <v>-0.2688484027101932</v>
+        <v>-0.03855260973399747</v>
       </c>
       <c r="F90">
-        <v>0.07221423844010505</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.155272777718859</v>
+      </c>
+      <c r="G90">
+        <v>-0.01400954399376341</v>
+      </c>
+      <c r="H90">
+        <v>0.03925740147884922</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2922834450790056</v>
+        <v>-0.2338542883141298</v>
       </c>
       <c r="C91">
-        <v>0.09565619363252981</v>
+        <v>-0.1595432307335252</v>
       </c>
       <c r="D91">
-        <v>0.04967911714790831</v>
+        <v>0.07032917790847175</v>
       </c>
       <c r="E91">
-        <v>-0.006529434484509494</v>
+        <v>-0.0276134800726477</v>
       </c>
       <c r="F91">
-        <v>-0.2472401914347785</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.11466753709562</v>
+      </c>
+      <c r="G91">
+        <v>-0.2245001895681938</v>
+      </c>
+      <c r="H91">
+        <v>0.1220134754270624</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1398751690415638</v>
+        <v>-0.1878342052347037</v>
       </c>
       <c r="C92">
-        <v>0.06654028885732334</v>
+        <v>-0.1180206621347867</v>
       </c>
       <c r="D92">
-        <v>-0.1699380007795351</v>
+        <v>-0.2748122706457659</v>
       </c>
       <c r="E92">
-        <v>-0.287834708157841</v>
+        <v>-0.02814798312355342</v>
       </c>
       <c r="F92">
-        <v>0.1090392129246648</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1358727653236308</v>
+      </c>
+      <c r="G92">
+        <v>-0.02389238885273044</v>
+      </c>
+      <c r="H92">
+        <v>0.1308475353525984</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0955455063133496</v>
+        <v>-0.1459200295632964</v>
       </c>
       <c r="C93">
-        <v>0.06794931201107618</v>
+        <v>-0.04571153438682491</v>
       </c>
       <c r="D93">
-        <v>-0.1772996396310292</v>
+        <v>-0.3304460304537026</v>
       </c>
       <c r="E93">
-        <v>-0.3765095842958278</v>
+        <v>-0.05647969604993428</v>
       </c>
       <c r="F93">
-        <v>0.04554028948977618</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1998373597154244</v>
+      </c>
+      <c r="G93">
+        <v>-0.02051638977491507</v>
+      </c>
+      <c r="H93">
+        <v>-0.02315266311262711</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2577376699408535</v>
+        <v>-0.2501789119836483</v>
       </c>
       <c r="C94">
-        <v>0.1236285309601979</v>
+        <v>-0.1493323757526143</v>
       </c>
       <c r="D94">
-        <v>0.01333583200481404</v>
+        <v>0.04234005076152494</v>
       </c>
       <c r="E94">
-        <v>0.02004616153863903</v>
+        <v>-0.03958329300332592</v>
       </c>
       <c r="F94">
-        <v>-0.3199446239336212</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1275133162319457</v>
+      </c>
+      <c r="G94">
+        <v>-0.2460131683382837</v>
+      </c>
+      <c r="H94">
+        <v>0.1341710026731497</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1146256034425574</v>
+        <v>-0.07776418633640403</v>
       </c>
       <c r="C95">
-        <v>0.01475629266511616</v>
+        <v>-0.05637434756666635</v>
       </c>
       <c r="D95">
-        <v>0.1054489473480218</v>
+        <v>0.0809814781614696</v>
       </c>
       <c r="E95">
-        <v>0.09586190933555389</v>
+        <v>-0.07823347128192702</v>
       </c>
       <c r="F95">
-        <v>0.07316864109065538</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.03315438466183117</v>
+      </c>
+      <c r="G95">
+        <v>0.07993703113081468</v>
+      </c>
+      <c r="H95">
+        <v>-0.02032950075142321</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1858041801797072</v>
+        <v>-0.1698537771367311</v>
       </c>
       <c r="C98">
-        <v>0.05396699224035201</v>
+        <v>-0.1057017235053202</v>
       </c>
       <c r="D98">
-        <v>0.02407997937769964</v>
+        <v>0.008310650648093072</v>
       </c>
       <c r="E98">
-        <v>-0.09369432547993077</v>
+        <v>-0.06263109730982762</v>
       </c>
       <c r="F98">
-        <v>0.07307601881410934</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.02076161266780656</v>
+      </c>
+      <c r="G98">
+        <v>0.1413434989237347</v>
+      </c>
+      <c r="H98">
+        <v>-0.3610390071729997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.008795327387553033</v>
+        <v>-0.01574621363780676</v>
       </c>
       <c r="C101">
-        <v>0.02696198052212573</v>
+        <v>-0.00446708005755544</v>
       </c>
       <c r="D101">
-        <v>0.03506879118046424</v>
+        <v>0.009183538099968224</v>
       </c>
       <c r="E101">
-        <v>0.1032315550818501</v>
+        <v>0.003070089761695173</v>
       </c>
       <c r="F101">
-        <v>0.1601706214436156</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03981758783042365</v>
+      </c>
+      <c r="G101">
+        <v>0.09642578348649621</v>
+      </c>
+      <c r="H101">
+        <v>0.06989457423035925</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.103848827469589</v>
+        <v>-0.110256254256413</v>
       </c>
       <c r="C102">
-        <v>0.03049496407268185</v>
+        <v>-0.06223931205815961</v>
       </c>
       <c r="D102">
-        <v>0.026720363285769</v>
+        <v>0.04484281141261744</v>
       </c>
       <c r="E102">
-        <v>0.06959021839917502</v>
+        <v>-0.004186070951468557</v>
       </c>
       <c r="F102">
-        <v>-0.1325361663117361</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06504665121764193</v>
+      </c>
+      <c r="G102">
+        <v>-0.1027793369837148</v>
+      </c>
+      <c r="H102">
+        <v>0.06449083113319999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02617798973004043</v>
+        <v>-0.02257458404762866</v>
       </c>
       <c r="C103">
-        <v>0.00970091493545348</v>
+        <v>-0.01380129914280408</v>
       </c>
       <c r="D103">
-        <v>0.006951940214836777</v>
+        <v>0.01062321633662854</v>
       </c>
       <c r="E103">
-        <v>0.006142280674559472</v>
+        <v>0.006631777093778064</v>
       </c>
       <c r="F103">
-        <v>-0.02641954665372881</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01555623115873499</v>
+      </c>
+      <c r="G103">
+        <v>-0.01097362946808144</v>
+      </c>
+      <c r="H103">
+        <v>0.008926297350046387</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.4461559446123466</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.8716057383685957</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.03337927496188164</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02055183059904494</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1670169301532348</v>
+      </c>
+      <c r="G104">
+        <v>-0.04368431606838437</v>
+      </c>
+      <c r="H104">
+        <v>0.0334277203950701</v>
       </c>
     </row>
   </sheetData>
